--- a/Desktop/고지서예시.xlsx
+++ b/Desktop/고지서예시.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work Space\GitHub\Ahnduino\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{852974C9-4C70-42C3-90BC-A94A8E99BA42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA1CE11-901D-4CDC-9EE6-940394CC1759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9564" xr2:uid="{D200ACFF-27F8-4EF6-9A6E-57FC2B2309DF}"/>
+    <workbookView xWindow="3375" yWindow="2265" windowWidth="21600" windowHeight="13035" xr2:uid="{D200ACFF-27F8-4EF6-9A6E-57FC2B2309DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>3월</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,38 @@
   </si>
   <si>
     <t>pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납부 승인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ab </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defmon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totmon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pomon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defmon =  지난달 납기후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pomon  = tot + 연체금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">totmon = def + 기본관리 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,18 +464,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C925BF45-2940-43F8-8363-7EAED79A9E3D}">
-  <dimension ref="B1:E9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D5" activeCellId="1" sqref="E6 D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.8984375" customWidth="1"/>
+    <col min="2" max="2" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>0</v>
       </c>
@@ -454,7 +486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
@@ -468,7 +500,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -482,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -496,7 +528,10 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -510,7 +545,10 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
@@ -524,7 +562,10 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -538,7 +579,7 @@
         <v>124000</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -552,7 +593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -564,6 +605,40 @@
       </c>
       <c r="E9" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
